--- a/Document/02. Design/02. DetailDesign/Task 4/Detail_Design_PreviewMail.xlsx
+++ b/Document/02. Design/02. DetailDesign/Task 4/Detail_Design_PreviewMail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ToanHH\Candidate-Management\Document\02. Design\02. DetailDesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\Candidate-Management\Document\02. Design\02. DetailDesign\Task 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E09CAF3-E2E0-4CF0-BE8D-AE436551C799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123AAD22-8375-460F-A185-BFF6D188AF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{952CE3F0-43C9-4E7D-900F-43E1A447393C}"/>
   </bookViews>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>Mã Số</t>
   </si>
@@ -187,13 +185,16 @@
   </si>
   <si>
     <t>upsert email khi [SAVE]</t>
+  </si>
+  <si>
+    <t>Hiển Thị Khởi Tạo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +226,14 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -291,42 +300,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -385,6 +397,55 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="10364646" cy="5839640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>448463</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41E785EA-88EB-4E70-AE76-4116908066E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4981575"/>
+          <a:ext cx="5649113" cy="3496163"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -695,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E072AE2F-0496-4947-B5CB-A15CA4B2A67D}">
   <dimension ref="A34:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -833,10 +894,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A49086-EFDE-4E15-A9A0-336B00B729AD}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,24 +910,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="J1" s="3" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="J1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M1" t="s">
@@ -877,204 +938,213 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="B8" s="2"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+      <c r="C16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="13"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
         <v>1</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="26" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A26" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
+  <mergeCells count="19">
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="D9:J9"/>
@@ -1082,13 +1152,13 @@
     <mergeCell ref="D12:J12"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>